--- a/result/Human/human-study.xlsx
+++ b/result/Human/human-study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latex项目\JSS-Exploit代码生成\代码\ExploitGen\result\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9863BD-9CB3-4CEB-902F-20E8324FF1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC083B5E-AFCD-4652-B05A-444AD917F262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,61 +344,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>30</c:v>
@@ -602,13 +602,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
@@ -620,43 +620,43 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +893,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18</c:v>
@@ -914,7 +914,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,995 +1129,6 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sem-ExploitGen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="65000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="65000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="65000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$U$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$12:$U$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-103B-4C4A-A981-D0F1939B0267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Syn-ExploitGen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$U$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$13:$U$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-103B-4C4A-A981-D0F1939B0267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="65000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="65000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="65000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$U$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$U$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-103B-4C4A-A981-D0F1939B0267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1180177231"/>
-        <c:axId val="1180177647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1180177231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1180177647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1180177647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1180177231"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2340,25 +1351,25 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>15</c:v>
@@ -2367,10 +1378,10 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
@@ -2379,7 +1390,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,16 +1621,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>38</c:v>
@@ -2634,7 +1645,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +1882,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18</c:v>
@@ -2892,7 +1903,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,12 +2118,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
 </cs:colorStyle>
@@ -3621,508 +2626,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4657,42 +3160,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A620081E-AEB9-CC6A-9BF5-B9CE71CA674F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5010,7 +3477,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5088,61 +3555,61 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
       <c r="M2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2">
         <v>30</v>
@@ -5156,13 +3623,13 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -5174,43 +3641,43 @@
         <v>18</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P3">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3">
         <v>10</v>
       </c>
       <c r="T3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U3">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5236,25 +3703,25 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>12</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O4">
         <v>15</v>
@@ -5263,10 +3730,10 @@
         <v>42</v>
       </c>
       <c r="Q4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -5275,7 +3742,7 @@
         <v>33</v>
       </c>
       <c r="U4">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5316,16 +3783,16 @@
         <v>13</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>18</v>
       </c>
       <c r="P5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>38</v>
@@ -5340,7 +3807,7 @@
         <v>39</v>
       </c>
       <c r="U5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5384,7 +3851,7 @@
         <v>8</v>
       </c>
       <c r="N6">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>18</v>
@@ -5405,7 +3872,7 @@
         <v>39</v>
       </c>
       <c r="U6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5478,64 +3945,64 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="I10">
+      <c r="O10">
         <v>16</v>
       </c>
-      <c r="J10">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>21</v>
-      </c>
-      <c r="M10">
-        <v>26</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>19</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10">
         <v>20</v>
       </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>25</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
-      </c>
-      <c r="R10">
-        <v>21</v>
-      </c>
-      <c r="S10">
-        <v>13</v>
-      </c>
-      <c r="T10">
-        <v>18</v>
-      </c>
       <c r="U10">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5543,25 +4010,25 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>16</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>23</v>
@@ -5570,37 +4037,37 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <v>26</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O11">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>38</v>
+      </c>
+      <c r="Q11">
         <v>19</v>
       </c>
-      <c r="P11">
-        <v>42</v>
-      </c>
-      <c r="Q11">
-        <v>18</v>
-      </c>
       <c r="R11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S11">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U11">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5608,52 +4075,52 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
         <v>25</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
       </c>
       <c r="E12">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I12">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P12">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R12">
         <v>26</v>
@@ -5662,10 +4129,10 @@
         <v>14</v>
       </c>
       <c r="T12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5673,16 +4140,16 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>32</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -5694,43 +4161,43 @@
         <v>32</v>
       </c>
       <c r="I13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
         <v>23</v>
       </c>
-      <c r="K13">
-        <v>17</v>
-      </c>
-      <c r="L13">
-        <v>27</v>
-      </c>
-      <c r="M13">
-        <v>43</v>
-      </c>
-      <c r="N13">
-        <v>26</v>
-      </c>
       <c r="O13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>19</v>
       </c>
       <c r="R13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U13">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5759,7 +4226,7 @@
         <v>32</v>
       </c>
       <c r="I14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>24</v>
@@ -5777,7 +4244,7 @@
         <v>27</v>
       </c>
       <c r="O14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>42</v>
